--- a/ConsoleApp1/ConsoleApp1/rule.xlsx
+++ b/ConsoleApp1/ConsoleApp1/rule.xlsx
@@ -1,98 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.0"/>
-  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLI MOX\ConsoleApp1\ConsoleApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-  </x:sheets>
-  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD1573C-30CE-4854-A3AD-808C27DD46B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="15420" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="rule" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구배트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리볼버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동권총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산탄총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼트액션 소총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민수용 반자동소총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관단총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동소총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정사수소총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민수용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>군용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="1">
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
-  </x:cellStyles>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
-</x:styleSheet>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="3a3c84"/>
+        <a:srgbClr val="3A3C84"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="faf3db"/>
+        <a:srgbClr val="FAF3DB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="6182d6"/>
+        <a:srgbClr val="6182D6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ff843a"/>
+        <a:srgbClr val="FF843A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="b2b2b2"/>
+        <a:srgbClr val="B2B2B2"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffd700"/>
+        <a:srgbClr val="FFD700"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="289b6e"/>
+        <a:srgbClr val="289B6E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9d5cbb"/>
+        <a:srgbClr val="9D5CBB"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -110,7 +215,7 @@
         <a:cs typeface="HNC_GO_B_HINT_GS"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -306,18 +411,206 @@
       <a:lstStyle/>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetData/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>